--- a/property_excel/template_gis.xlsx
+++ b/property_excel/template_gis.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="100">
   <si>
     <t>№</t>
   </si>
@@ -440,8 +440,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="\(###\)\ ###\-##\-##"/>
-    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="\(###\)\ ###\-##\-##"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -1615,7 +1615,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1623,7 +1623,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
@@ -1635,7 +1635,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
@@ -1644,7 +1644,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1663,70 +1663,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1741,7 +1684,7 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="23" borderId="2" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="23" borderId="2" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="23" borderId="6" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,11 +1699,32 @@
     <xf numFmtId="1" fontId="15" fillId="23" borderId="2" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1768,26 +1732,71 @@
     <xf numFmtId="0" fontId="15" fillId="24" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="390">
@@ -4516,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:AL39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE41" sqref="AE41:AL41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4527,130 +4536,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AK1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AO1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AP1" s="56" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4674,19 +4683,19 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -4705,130 +4714,130 @@
       <c r="AU2" s="3"/>
     </row>
     <row r="3" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AJ3" s="20" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="20" t="s">
+      <c r="AK3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AL3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AM3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AO3" s="20" t="s">
+      <c r="AO3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="AP3" s="20" t="s">
+      <c r="AP3" s="59" t="s">
         <v>74</v>
       </c>
       <c r="AT3" s="2"/>
@@ -4882,67 +4891,67 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="W5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="X5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
@@ -4952,116 +4961,116 @@
     </row>
     <row r="6" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="55" t="s">
         <v>16</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="W6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="22" t="s">
+      <c r="Z6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AB6" s="22" t="s">
+      <c r="AB6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="22" t="s">
+      <c r="AC6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="22" t="s">
+      <c r="AD6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AE6" s="22" t="s">
+      <c r="AE6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AF6" s="22" t="s">
+      <c r="AF6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AG6" s="22" t="s">
+      <c r="AG6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AH6" s="22" t="s">
+      <c r="AH6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AI6" s="22" t="s">
+      <c r="AI6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AJ6" s="22" t="s">
+      <c r="AJ6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AK6" s="22" t="s">
+      <c r="AK6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AL6" s="22" t="s">
+      <c r="AL6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AM6" s="22" t="s">
+      <c r="AM6" s="35" t="s">
         <v>2</v>
       </c>
       <c r="AN6" s="1"/>
@@ -5072,66 +5081,66 @@
     </row>
     <row r="7" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="37" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
@@ -5140,58 +5149,58 @@
     </row>
     <row r="8" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
@@ -5200,64 +5209,64 @@
     </row>
     <row r="9" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
@@ -5266,82 +5275,82 @@
     </row>
     <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="25" t="s">
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AA10" s="25" t="s">
+      <c r="AA10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AB10" s="25" t="s">
+      <c r="AB10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AC10" s="25" t="s">
+      <c r="AC10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AD10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AE10" s="25" t="s">
+      <c r="AE10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AF10" s="25" t="s">
+      <c r="AF10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AG10" s="25" t="s">
+      <c r="AG10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AH10" s="25" t="s">
+      <c r="AH10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AI10" s="25" t="s">
+      <c r="AI10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AJ10" s="25" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AK10" s="25" t="s">
+      <c r="AK10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AL10" s="25" t="s">
+      <c r="AL10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AM10" s="25" t="s">
+      <c r="AM10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="AN10" s="4"/>
@@ -5352,82 +5361,82 @@
     </row>
     <row r="11" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="25" t="s">
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AC11" s="25" t="s">
+      <c r="AC11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AD11" s="25" t="s">
+      <c r="AD11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AE11" s="25" t="s">
+      <c r="AE11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AF11" s="25" t="s">
+      <c r="AF11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AG11" s="25" t="s">
+      <c r="AG11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AH11" s="25" t="s">
+      <c r="AH11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AI11" s="25" t="s">
+      <c r="AI11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AJ11" s="25" t="s">
+      <c r="AJ11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AK11" s="25" t="s">
+      <c r="AK11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AL11" s="25" t="s">
+      <c r="AL11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AM11" s="25" t="s">
+      <c r="AM11" s="37" t="s">
         <v>25</v>
       </c>
       <c r="AN11" s="1"/>
@@ -5484,46 +5493,46 @@
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="40" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="1"/>
@@ -5558,124 +5567,124 @@
     </row>
     <row r="14" spans="1:47" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="56" t="s">
+      <c r="M14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="56" t="s">
+      <c r="N14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="56" t="s">
+      <c r="O14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="56" t="s">
+      <c r="Q14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="56" t="s">
+      <c r="S14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="56" t="s">
+      <c r="T14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="56" t="s">
+      <c r="U14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="V14" s="56" t="s">
+      <c r="V14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="W14" s="56" t="s">
+      <c r="W14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="X14" s="56" t="s">
+      <c r="X14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Y14" s="56" t="s">
+      <c r="Y14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Z14" s="56" t="s">
+      <c r="Z14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="56" t="s">
+      <c r="AA14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AB14" s="56" t="s">
+      <c r="AB14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AC14" s="56" t="s">
+      <c r="AC14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AD14" s="56" t="s">
+      <c r="AD14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AE14" s="56" t="s">
+      <c r="AE14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AF14" s="56" t="s">
+      <c r="AF14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AG14" s="56" t="s">
+      <c r="AG14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AH14" s="56" t="s">
+      <c r="AH14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AI14" s="28" t="s">
+      <c r="AI14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ14" s="28" t="s">
+      <c r="AJ14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AK14" s="28" t="s">
+      <c r="AK14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AL14" s="28" t="s">
+      <c r="AL14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AM14" s="28" t="s">
+      <c r="AM14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AN14" s="28" t="s">
+      <c r="AN14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AO14" s="28" t="s">
+      <c r="AO14" s="51" t="s">
         <v>29</v>
       </c>
       <c r="AP14" s="1"/>
@@ -5684,124 +5693,124 @@
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="56" t="s">
+      <c r="M15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="56" t="s">
+      <c r="O15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="56" t="s">
+      <c r="P15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="56" t="s">
+      <c r="Q15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="56" t="s">
+      <c r="R15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="56" t="s">
+      <c r="S15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="T15" s="56" t="s">
+      <c r="T15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="56" t="s">
+      <c r="U15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="V15" s="56" t="s">
+      <c r="V15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="56" t="s">
+      <c r="W15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="X15" s="56" t="s">
+      <c r="X15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Y15" s="56" t="s">
+      <c r="Y15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Z15" s="56" t="s">
+      <c r="Z15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="56" t="s">
+      <c r="AA15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AB15" s="56" t="s">
+      <c r="AB15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AC15" s="56" t="s">
+      <c r="AC15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AD15" s="56" t="s">
+      <c r="AD15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AE15" s="56" t="s">
+      <c r="AE15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AF15" s="56" t="s">
+      <c r="AF15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AG15" s="56" t="s">
+      <c r="AG15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AH15" s="56" t="s">
+      <c r="AH15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AI15" s="29" t="s">
+      <c r="AI15" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AJ15" s="29" t="s">
+      <c r="AJ15" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AK15" s="29" t="s">
+      <c r="AK15" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AL15" s="29" t="s">
+      <c r="AL15" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AM15" s="29" t="s">
+      <c r="AM15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AN15" s="29" t="s">
+      <c r="AN15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AO15" s="29" t="s">
+      <c r="AO15" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AP15" s="1"/>
@@ -5810,331 +5819,331 @@
     </row>
     <row r="16" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
       <c r="AP16" s="1"/>
       <c r="AT16" s="6"/>
       <c r="AU16" s="3"/>
     </row>
     <row r="17" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
       <c r="AP17" s="1"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="3"/>
     </row>
     <row r="18" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
       <c r="AP18" s="16"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="3"/>
     </row>
     <row r="19" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
       <c r="AP19" s="16"/>
       <c r="AT19" s="6"/>
       <c r="AU19" s="3"/>
     </row>
     <row r="20" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
       <c r="AP20" s="16"/>
       <c r="AT20" s="6"/>
       <c r="AU20" s="3"/>
     </row>
     <row r="21" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
       <c r="AP21" s="16"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="3"/>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="40" t="s">
         <v>30</v>
       </c>
       <c r="S22" s="1"/>
@@ -6166,122 +6175,122 @@
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="Q23" s="22" t="s">
+      <c r="Q23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="R23" s="22" t="s">
+      <c r="R23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="22" t="s">
+      <c r="S23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="T23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="U23" s="22" t="s">
+      <c r="U23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="V23" s="22" t="s">
+      <c r="V23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="W23" s="22" t="s">
+      <c r="W23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="X23" s="22" t="s">
+      <c r="X23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="22" t="s">
+      <c r="Y23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="Z23" s="22" t="s">
+      <c r="Z23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AA23" s="22" t="s">
+      <c r="AA23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB23" s="22" t="s">
+      <c r="AB23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AC23" s="22" t="s">
+      <c r="AC23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AD23" s="22" t="s">
+      <c r="AD23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AE23" s="22" t="s">
+      <c r="AE23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AF23" s="22" t="s">
+      <c r="AF23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AG23" s="22" t="s">
+      <c r="AG23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AH23" s="22" t="s">
+      <c r="AH23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AI23" s="22" t="s">
+      <c r="AI23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AJ23" s="22" t="s">
+      <c r="AJ23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AK23" s="22" t="s">
+      <c r="AK23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AL23" s="22" t="s">
+      <c r="AL23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AM23" s="22" t="s">
+      <c r="AM23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AN23" s="22" t="s">
+      <c r="AN23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AO23" s="22" t="s">
+      <c r="AO23" s="35" t="s">
         <v>75</v>
       </c>
       <c r="AP23" s="1"/>
@@ -6290,43 +6299,43 @@
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="40" t="s">
         <v>31</v>
       </c>
       <c r="O24" s="1"/>
@@ -6362,181 +6371,181 @@
     </row>
     <row r="25" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="32" t="s">
+      <c r="M25" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="32" t="s">
+      <c r="T25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="U25" s="32" t="s">
+      <c r="U25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="33"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="32" t="s">
+      <c r="AC25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AD25" s="32" t="s">
+      <c r="AD25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AE25" s="32" t="s">
+      <c r="AE25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AF25" s="32" t="s">
+      <c r="AF25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AG25" s="32" t="s">
+      <c r="AG25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AH25" s="32" t="s">
+      <c r="AH25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AI25" s="32" t="s">
+      <c r="AI25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="22"/>
-      <c r="AO25" s="22"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="35"/>
       <c r="AP25" s="1"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="3"/>
     </row>
     <row r="26" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="35" t="s">
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="35" t="s">
+      <c r="O26" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="35" t="s">
+      <c r="P26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q26" s="35" t="s">
+      <c r="Q26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R26" s="35" t="s">
+      <c r="R26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="S26" s="35" t="s">
+      <c r="S26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="T26" s="35" t="s">
+      <c r="T26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U26" s="35" t="s">
+      <c r="U26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="V26" s="35" t="s">
+      <c r="V26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="35" t="s">
+      <c r="W26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="35" t="s">
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AB26" s="35" t="s">
+      <c r="AB26" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AC26" s="25" t="s">
+      <c r="AC26" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AD26" s="25" t="s">
+      <c r="AD26" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AE26" s="25" t="s">
+      <c r="AE26" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AF26" s="25" t="s">
+      <c r="AF26" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AG26" s="25" t="s">
+      <c r="AG26" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AH26" s="25" t="s">
+      <c r="AH26" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
       <c r="AM26" s="4" t="s">
         <v>37</v>
       </c>
@@ -6548,65 +6557,65 @@
     </row>
     <row r="27" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="35" t="s">
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="35" t="s">
+      <c r="Q27" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="R27" s="35" t="s">
+      <c r="R27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="S27" s="35" t="s">
+      <c r="S27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="35" t="s">
+      <c r="T27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="35" t="s">
+      <c r="U27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="35" t="s">
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AB27" s="35" t="s">
+      <c r="AB27" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
@@ -6624,41 +6633,41 @@
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="35" t="s">
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="P28" s="35" t="s">
+      <c r="P28" s="44" t="s">
         <v>37</v>
       </c>
       <c r="Q28" s="11"/>
@@ -6692,54 +6701,54 @@
     </row>
     <row r="29" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
       <c r="AF29" s="11"/>
@@ -6758,75 +6767,75 @@
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="35" t="s">
+      <c r="J30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="L30" s="35" t="s">
+      <c r="L30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="M30" s="35" t="s">
+      <c r="M30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="35" t="s">
+      <c r="N30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="35" t="s">
+      <c r="O30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="35" t="s">
+      <c r="U30" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="V30" s="35" t="s">
+      <c r="V30" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="W30" s="35" t="s">
+      <c r="W30" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="X30" s="35" t="s">
+      <c r="X30" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Y30" s="35" t="s">
+      <c r="Y30" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
       <c r="AG30" s="14"/>
       <c r="AH30" s="14"/>
       <c r="AI30" s="14"/>
@@ -6842,65 +6851,65 @@
     </row>
     <row r="31" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
       <c r="AT31" s="2"/>
@@ -6908,77 +6917,77 @@
     </row>
     <row r="32" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
       <c r="AB32" s="11"/>
-      <c r="AC32" s="35" t="s">
+      <c r="AC32" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AD32" s="35" t="s">
+      <c r="AD32" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AE32" s="35" t="s">
+      <c r="AE32" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AF32" s="35" t="s">
+      <c r="AF32" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AG32" s="35" t="s">
+      <c r="AG32" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AH32" s="35" t="s">
+      <c r="AH32" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="46"/>
+      <c r="AN32" s="46"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
       <c r="AT32" s="2"/>
@@ -6986,56 +6995,56 @@
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="52" t="s">
+      <c r="J33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="N33" s="52" t="s">
+      <c r="N33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="52" t="s">
+      <c r="O33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -7060,58 +7069,58 @@
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="52" t="s">
+      <c r="J34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="M34" s="52" t="s">
+      <c r="M34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="N34" s="52" t="s">
+      <c r="N34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="52" t="s">
+      <c r="O34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="P34" s="52" t="s">
+      <c r="P34" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -7136,87 +7145,87 @@
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="52" t="s">
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="52" t="s">
+      <c r="N35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="O35" s="52" t="s">
+      <c r="O35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="P35" s="52" t="s">
+      <c r="P35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="R35" s="52" t="s">
+      <c r="R35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="S35" s="52" t="s">
+      <c r="S35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="T35" s="52" t="s">
+      <c r="T35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="52" t="s">
+      <c r="Z35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AA35" s="52" t="s">
+      <c r="AA35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AB35" s="52" t="s">
+      <c r="AB35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AC35" s="52" t="s">
+      <c r="AC35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AD35" s="52" t="s">
+      <c r="AD35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AE35" s="52" t="s">
+      <c r="AE35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AF35" s="52" t="s">
+      <c r="AF35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
@@ -7228,251 +7237,251 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
       <c r="AP36" s="1"/>
       <c r="AT36" s="2"/>
       <c r="AU36" s="3"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="52" t="s">
+      <c r="U37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="V37" s="52" t="s">
+      <c r="V37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="W37" s="52" t="s">
+      <c r="W37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="52" t="s">
+      <c r="X37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="Y37" s="52" t="s">
+      <c r="Y37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="Z37" s="52" t="s">
+      <c r="Z37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AA37" s="52" t="s">
+      <c r="AA37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AB37" s="52" t="s">
+      <c r="AB37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AC37" s="52" t="s">
+      <c r="AC37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
       <c r="AP37" s="1"/>
       <c r="AT37" s="2"/>
       <c r="AU37" s="7"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="34"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="34"/>
-      <c r="AO38" s="34"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
       <c r="AP38" s="1"/>
       <c r="AT38" s="2"/>
       <c r="AU38" s="3"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="29" t="s">
         <v>89</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
       <c r="AM39" s="15"/>
       <c r="AN39" s="15"/>
       <c r="AO39" s="15"/>
@@ -7482,42 +7491,42 @@
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H40" s="52" t="s">
+      <c r="H40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="52" t="s">
+      <c r="I40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J40" s="52" t="s">
+      <c r="J40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="K40" s="52" t="s">
+      <c r="K40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -7546,102 +7555,94 @@
       <c r="AT40" s="2"/>
       <c r="AU40" s="3"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="52" t="s">
+      <c r="J41" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="52" t="s">
+      <c r="K41" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="52" t="s">
+      <c r="L41" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="22" t="s">
+      <c r="M41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="N41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="O41" s="22" t="s">
+      <c r="O41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P41" s="22" t="s">
+      <c r="P41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="Q41" s="22" t="s">
+      <c r="Q41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="R41" s="22" t="s">
+      <c r="R41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="S41" s="22" t="s">
+      <c r="S41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="T41" s="22" t="s">
+      <c r="T41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="U41" s="22" t="s">
+      <c r="U41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="V41" s="22" t="s">
+      <c r="V41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="W41" s="22" t="s">
+      <c r="W41" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="X41" s="22" t="s">
+      <c r="X41" s="35" t="s">
         <v>46</v>
       </c>
       <c r="Y41" s="1"/>
-      <c r="Z41" s="52" t="s">
+      <c r="Z41" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AA41" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB41" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC41" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD41" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="22"/>
-      <c r="AL41" s="22"/>
-      <c r="AM41" s="1"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="34"/>
+      <c r="AH41" s="34"/>
+      <c r="AI41" s="34"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="34"/>
+      <c r="AL41" s="34"/>
+      <c r="AM41" s="17"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
@@ -7650,74 +7651,74 @@
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="52" t="s">
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="N42" s="52" t="s">
+      <c r="N42" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="52" t="s">
+      <c r="O42" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="P42" s="52" t="s">
+      <c r="P42" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="Q42" s="52" t="s">
+      <c r="Q42" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="R42" s="52" t="s">
+      <c r="R42" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="52" t="s">
+      <c r="Y42" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="Z42" s="52" t="s">
+      <c r="Z42" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AA42" s="52" t="s">
+      <c r="AA42" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AB42" s="52" t="s">
+      <c r="AB42" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC42" s="52" t="s">
+      <c r="AC42" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
@@ -7730,137 +7731,137 @@
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="52" t="s">
+      <c r="I43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="52" t="s">
+      <c r="J43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K43" s="52" t="s">
+      <c r="K43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="L43" s="52" t="s">
+      <c r="L43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="52" t="s">
+      <c r="M43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="N43" s="52" t="s">
+      <c r="N43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O43" s="38"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="52" t="s">
+      <c r="AA43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AB43" s="52" t="s">
+      <c r="AB43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AC43" s="52" t="s">
+      <c r="AC43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AD43" s="52" t="s">
+      <c r="AD43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AE43" s="52" t="s">
+      <c r="AE43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AF43" s="52" t="s">
+      <c r="AF43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AG43" s="52" t="s">
+      <c r="AG43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AH43" s="52" t="s">
+      <c r="AH43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="22"/>
-      <c r="AM43" s="22"/>
-      <c r="AN43" s="22"/>
-      <c r="AO43" s="22"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="35"/>
+      <c r="AK43" s="35"/>
+      <c r="AL43" s="35"/>
+      <c r="AM43" s="35"/>
+      <c r="AN43" s="35"/>
+      <c r="AO43" s="35"/>
       <c r="AP43" s="1"/>
       <c r="AT43" s="2"/>
       <c r="AU43" s="3"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="K44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="L44" s="21" t="s">
+      <c r="L44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="O44" s="21" t="s">
+      <c r="O44" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="P44" s="21" t="s">
+      <c r="P44" s="40" t="s">
         <v>51</v>
       </c>
       <c r="Q44" s="1"/>
@@ -7894,124 +7895,124 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="48" t="s">
+      <c r="G45" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="49" t="s">
+      <c r="H45" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="49" t="s">
+      <c r="I45" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="49" t="s">
+      <c r="J45" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="K45" s="49" t="s">
+      <c r="K45" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="L45" s="49" t="s">
+      <c r="L45" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="49" t="s">
+      <c r="M45" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="N45" s="49" t="s">
+      <c r="N45" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="O45" s="49" t="s">
+      <c r="O45" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="P45" s="49" t="s">
+      <c r="P45" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Q45" s="49" t="s">
+      <c r="Q45" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="R45" s="49" t="s">
+      <c r="R45" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="S45" s="49" t="s">
+      <c r="S45" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="T45" s="49" t="s">
+      <c r="T45" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="U45" s="49" t="s">
+      <c r="U45" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="V45" s="49" t="s">
+      <c r="V45" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="W45" s="49" t="s">
+      <c r="W45" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="X45" s="49" t="s">
+      <c r="X45" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y45" s="49" t="s">
+      <c r="Y45" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Z45" s="49" t="s">
+      <c r="Z45" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AA45" s="49" t="s">
+      <c r="AA45" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AB45" s="49" t="s">
+      <c r="AB45" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AC45" s="49" t="s">
+      <c r="AC45" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AD45" s="49" t="s">
+      <c r="AD45" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE45" s="49" t="s">
+      <c r="AE45" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AF45" s="49" t="s">
+      <c r="AF45" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AG45" s="49" t="s">
+      <c r="AG45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH45" s="49" t="s">
+      <c r="AH45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AI45" s="49" t="s">
+      <c r="AI45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AJ45" s="49" t="s">
+      <c r="AJ45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AK45" s="49" t="s">
+      <c r="AK45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AL45" s="49" t="s">
+      <c r="AL45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AM45" s="49" t="s">
+      <c r="AM45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AN45" s="49" t="s">
+      <c r="AN45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AO45" s="49" t="s">
+      <c r="AO45" s="42" t="s">
         <v>56</v>
       </c>
       <c r="AP45" s="1"/>
@@ -8020,727 +8021,727 @@
     </row>
     <row r="46" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="47"/>
-      <c r="AH46" s="39"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="39"/>
-      <c r="AM46" s="39"/>
-      <c r="AN46" s="39"/>
-      <c r="AO46" s="39"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
       <c r="AP46" s="1"/>
       <c r="AT46" s="2"/>
       <c r="AU46" s="3"/>
     </row>
     <row r="47" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="44"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="47"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="39"/>
-      <c r="AN47" s="39"/>
-      <c r="AO47" s="39"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
       <c r="AP47" s="1"/>
       <c r="AT47" s="2"/>
       <c r="AU47" s="3"/>
     </row>
     <row r="48" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AE48" s="45"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="39"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="39"/>
-      <c r="AL48" s="39"/>
-      <c r="AM48" s="39"/>
-      <c r="AN48" s="39"/>
-      <c r="AO48" s="39"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
       <c r="AP48" s="1"/>
       <c r="AT48" s="2"/>
       <c r="AU48" s="3"/>
     </row>
     <row r="49" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="45"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="45"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="47"/>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39"/>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
       <c r="AP49" s="1"/>
       <c r="AT49" s="2"/>
       <c r="AU49" s="3"/>
     </row>
     <row r="50" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="46"/>
-      <c r="AG50" s="47"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="39"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
       <c r="AP50" s="1"/>
       <c r="AT50" s="2"/>
       <c r="AU50" s="3"/>
     </row>
     <row r="51" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="45"/>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="45"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="47"/>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39"/>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="39"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
       <c r="AP51" s="16"/>
       <c r="AT51" s="2"/>
       <c r="AU51" s="3"/>
     </row>
     <row r="52" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="43"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="45"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="47"/>
-      <c r="AH52" s="39"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="39"/>
-      <c r="AL52" s="39"/>
-      <c r="AM52" s="39"/>
-      <c r="AN52" s="39"/>
-      <c r="AO52" s="39"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="26"/>
+      <c r="AE52" s="26"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="28"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="20"/>
       <c r="AP52" s="16"/>
       <c r="AT52" s="2"/>
       <c r="AU52" s="3"/>
     </row>
     <row r="53" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
-      <c r="AD53" s="45"/>
-      <c r="AE53" s="45"/>
-      <c r="AF53" s="46"/>
-      <c r="AG53" s="47"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39"/>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="26"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+      <c r="AL53" s="20"/>
+      <c r="AM53" s="20"/>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20"/>
       <c r="AP53" s="16"/>
       <c r="AT53" s="2"/>
       <c r="AU53" s="3"/>
     </row>
     <row r="54" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="43"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="45"/>
-      <c r="AE54" s="45"/>
-      <c r="AF54" s="46"/>
-      <c r="AG54" s="47"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="39"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="39"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="26"/>
+      <c r="AB54" s="26"/>
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="26"/>
+      <c r="AE54" s="26"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="20"/>
+      <c r="AI54" s="20"/>
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="20"/>
+      <c r="AM54" s="20"/>
+      <c r="AN54" s="20"/>
+      <c r="AO54" s="20"/>
       <c r="AP54" s="16"/>
       <c r="AT54" s="2"/>
       <c r="AU54" s="3"/>
     </row>
     <row r="55" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43"/>
-      <c r="Z55" s="44"/>
-      <c r="AA55" s="45"/>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="45"/>
-      <c r="AE55" s="45"/>
-      <c r="AF55" s="46"/>
-      <c r="AG55" s="47"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="26"/>
+      <c r="AE55" s="26"/>
+      <c r="AF55" s="27"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="20"/>
+      <c r="AO55" s="20"/>
       <c r="AP55" s="16"/>
       <c r="AT55" s="2"/>
       <c r="AU55" s="7"/>
     </row>
     <row r="56" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="43"/>
-      <c r="Z56" s="44"/>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="45"/>
-      <c r="AE56" s="45"/>
-      <c r="AF56" s="46"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="39"/>
-      <c r="AO56" s="39"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="27"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="20"/>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="20"/>
+      <c r="AN56" s="20"/>
+      <c r="AO56" s="20"/>
       <c r="AP56" s="1"/>
       <c r="AT56" s="2"/>
       <c r="AU56" s="3"/>
     </row>
     <row r="57" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="42"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="46"/>
-      <c r="AG57" s="47"/>
-      <c r="AH57" s="39"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="39"/>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="39"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="26"/>
+      <c r="AF57" s="27"/>
+      <c r="AG57" s="28"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+      <c r="AL57" s="20"/>
+      <c r="AM57" s="20"/>
+      <c r="AN57" s="20"/>
+      <c r="AO57" s="20"/>
       <c r="AP57" s="1"/>
       <c r="AT57" s="2"/>
       <c r="AU57" s="3"/>
     </row>
     <row r="58" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="44"/>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="46"/>
-      <c r="AG58" s="47"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="39"/>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="39"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="26"/>
+      <c r="AE58" s="26"/>
+      <c r="AF58" s="27"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="20"/>
+      <c r="AI58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AK58" s="20"/>
+      <c r="AL58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AN58" s="20"/>
+      <c r="AO58" s="20"/>
       <c r="AP58" s="1"/>
       <c r="AT58" s="2"/>
       <c r="AU58" s="3"/>
     </row>
     <row r="59" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="45"/>
-      <c r="AB59" s="45"/>
-      <c r="AC59" s="45"/>
-      <c r="AD59" s="45"/>
-      <c r="AE59" s="45"/>
-      <c r="AF59" s="46"/>
-      <c r="AG59" s="47"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="26"/>
+      <c r="AE59" s="26"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="20"/>
+      <c r="AI59" s="20"/>
+      <c r="AJ59" s="20"/>
+      <c r="AK59" s="20"/>
+      <c r="AL59" s="20"/>
+      <c r="AM59" s="20"/>
+      <c r="AN59" s="20"/>
+      <c r="AO59" s="20"/>
       <c r="AP59" s="1"/>
       <c r="AT59" s="2"/>
       <c r="AU59" s="3"/>
     </row>
     <row r="60" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="43"/>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="43"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="45"/>
-      <c r="AB60" s="45"/>
-      <c r="AC60" s="45"/>
-      <c r="AD60" s="45"/>
-      <c r="AE60" s="45"/>
-      <c r="AF60" s="46"/>
-      <c r="AG60" s="47"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="26"/>
+      <c r="AE60" s="26"/>
+      <c r="AF60" s="27"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="20"/>
+      <c r="AI60" s="20"/>
+      <c r="AJ60" s="20"/>
+      <c r="AK60" s="20"/>
+      <c r="AL60" s="20"/>
+      <c r="AM60" s="20"/>
+      <c r="AN60" s="20"/>
+      <c r="AO60" s="20"/>
       <c r="AP60" s="1"/>
       <c r="AT60" s="2"/>
       <c r="AU60" s="7"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="21" t="s">
+      <c r="J61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="21" t="s">
+      <c r="K61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="L61" s="21" t="s">
+      <c r="L61" s="40" t="s">
         <v>57</v>
       </c>
       <c r="M61" s="1"/>
@@ -8778,61 +8779,61 @@
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="25" t="s">
+      <c r="I62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J62" s="25" t="s">
+      <c r="J62" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K62" s="34" t="s">
+      <c r="K62" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="34"/>
-      <c r="AG62" s="34"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="34"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
+      <c r="AC62" s="36"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="36"/>
+      <c r="AF62" s="36"/>
+      <c r="AG62" s="36"/>
+      <c r="AH62" s="36"/>
+      <c r="AI62" s="36"/>
+      <c r="AJ62" s="36"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
@@ -8844,69 +8845,69 @@
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="50" t="s">
+      <c r="F63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="50" t="s">
+      <c r="G63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="50" t="s">
+      <c r="H63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="50" t="s">
+      <c r="I63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
       <c r="W63" s="13"/>
-      <c r="X63" s="50" t="s">
+      <c r="X63" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="Y63" s="50" t="s">
+      <c r="Y63" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="Z63" s="50" t="s">
+      <c r="Z63" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AA63" s="50" t="s">
+      <c r="AA63" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AB63" s="50" t="s">
+      <c r="AB63" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AC63" s="50" t="s">
+      <c r="AC63" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AD63" s="51"/>
-      <c r="AE63" s="51"/>
-      <c r="AF63" s="51"/>
-      <c r="AG63" s="51"/>
-      <c r="AH63" s="51"/>
-      <c r="AI63" s="51"/>
-      <c r="AJ63" s="51"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="39"/>
+      <c r="AH63" s="39"/>
+      <c r="AI63" s="39"/>
+      <c r="AJ63" s="39"/>
       <c r="AK63" s="13"/>
       <c r="AL63" s="13"/>
       <c r="AM63" s="13"/>
@@ -8922,61 +8923,61 @@
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="50" t="s">
+      <c r="G65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I65" s="50" t="s">
+      <c r="I65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J65" s="50" t="s">
+      <c r="J65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="K65" s="50" t="s">
+      <c r="K65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="51"/>
-      <c r="U65" s="51"/>
-      <c r="V65" s="51"/>
-      <c r="W65" s="51"/>
-      <c r="X65" s="51"/>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="51"/>
-      <c r="AA65" s="51"/>
-      <c r="AB65" s="51"/>
-      <c r="AC65" s="51"/>
-      <c r="AD65" s="51"/>
-      <c r="AE65" s="51"/>
-      <c r="AF65" s="51"/>
-      <c r="AG65" s="51"/>
-      <c r="AH65" s="51"/>
-      <c r="AI65" s="51"/>
-      <c r="AJ65" s="51"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="39"/>
+      <c r="AF65" s="39"/>
+      <c r="AG65" s="39"/>
+      <c r="AH65" s="39"/>
+      <c r="AI65" s="39"/>
+      <c r="AJ65" s="39"/>
       <c r="AK65" s="13"/>
       <c r="AL65" s="13"/>
       <c r="AM65" s="13"/>
@@ -8988,90 +8989,90 @@
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="52" t="s">
+      <c r="F66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G66" s="52" t="s">
+      <c r="G66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="52" t="s">
+      <c r="H66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I66" s="52" t="s">
+      <c r="I66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J66" s="52" t="s">
+      <c r="J66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="K66" s="52" t="s">
+      <c r="K66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="L66" s="52" t="s">
+      <c r="L66" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
       <c r="Q66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="25" t="s">
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="W66" s="25" t="s">
+      <c r="W66" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="X66" s="25" t="s">
+      <c r="X66" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="Y66" s="25" t="s">
+      <c r="Y66" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="Z66" s="25" t="s">
+      <c r="Z66" s="37" t="s">
         <v>64</v>
       </c>
       <c r="AA66" s="1"/>
-      <c r="AB66" s="25" t="s">
+      <c r="AB66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AC66" s="25" t="s">
+      <c r="AC66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AD66" s="25" t="s">
+      <c r="AD66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AE66" s="25" t="s">
+      <c r="AE66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AF66" s="25" t="s">
+      <c r="AF66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AG66" s="25" t="s">
+      <c r="AG66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="22"/>
-      <c r="AM66" s="22"/>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="35"/>
+      <c r="AM66" s="35"/>
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
@@ -9080,63 +9081,63 @@
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F67" s="52" t="s">
+      <c r="F67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G67" s="52" t="s">
+      <c r="G67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H67" s="52" t="s">
+      <c r="H67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I67" s="52" t="s">
+      <c r="I67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="52" t="s">
+      <c r="J67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="K67" s="52" t="s">
+      <c r="K67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="L67" s="52" t="s">
+      <c r="L67" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
       <c r="Q67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="25" t="s">
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="W67" s="25" t="s">
+      <c r="W67" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="X67" s="25" t="s">
+      <c r="X67" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="Y67" s="25" t="s">
+      <c r="Y67" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="Z67" s="25" t="s">
+      <c r="Z67" s="37" t="s">
         <v>64</v>
       </c>
       <c r="AA67" s="1"/>
@@ -9160,68 +9161,68 @@
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F68" s="52" t="s">
+      <c r="F68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G68" s="52" t="s">
+      <c r="G68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="H68" s="52" t="s">
+      <c r="H68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I68" s="52" t="s">
+      <c r="I68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J68" s="52" t="s">
+      <c r="J68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K68" s="52" t="s">
+      <c r="K68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="L68" s="52" t="s">
+      <c r="L68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="M68" s="52" t="s">
+      <c r="M68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-      <c r="AJ68" s="22"/>
-      <c r="AK68" s="22"/>
-      <c r="AL68" s="22"/>
-      <c r="AM68" s="22"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
+      <c r="AJ68" s="35"/>
+      <c r="AK68" s="35"/>
+      <c r="AL68" s="35"/>
+      <c r="AM68" s="35"/>
       <c r="AN68" s="1"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
@@ -9230,68 +9231,68 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="52" t="s">
+      <c r="F69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G69" s="52" t="s">
+      <c r="G69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="52" t="s">
+      <c r="H69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I69" s="52" t="s">
+      <c r="I69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="52" t="s">
+      <c r="J69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K69" s="52" t="s">
+      <c r="K69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="L69" s="52" t="s">
+      <c r="L69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="M69" s="52" t="s">
+      <c r="M69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="22"/>
-      <c r="AM69" s="22"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="35"/>
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
@@ -9300,124 +9301,124 @@
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="52" t="s">
+      <c r="F70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G70" s="52" t="s">
+      <c r="G70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H70" s="52" t="s">
+      <c r="H70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I70" s="52" t="s">
+      <c r="I70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="52" t="s">
+      <c r="J70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K70" s="52" t="s">
+      <c r="K70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L70" s="52" t="s">
+      <c r="L70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="M70" s="52" t="s">
+      <c r="M70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N70" s="52" t="s">
+      <c r="N70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O70" s="52" t="s">
+      <c r="O70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="P70" s="52" t="s">
+      <c r="P70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Q70" s="52" t="s">
+      <c r="Q70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="R70" s="52" t="s">
+      <c r="R70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S70" s="52" t="s">
+      <c r="S70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="T70" s="52" t="s">
+      <c r="T70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U70" s="52" t="s">
+      <c r="U70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="V70" s="52" t="s">
+      <c r="V70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="W70" s="52" t="s">
+      <c r="W70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="X70" s="52" t="s">
+      <c r="X70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Y70" s="52" t="s">
+      <c r="Y70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Z70" s="52" t="s">
+      <c r="Z70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AA70" s="52" t="s">
+      <c r="AA70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AB70" s="52" t="s">
+      <c r="AB70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AC70" s="52" t="s">
+      <c r="AC70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AD70" s="52" t="s">
+      <c r="AD70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AE70" s="52" t="s">
+      <c r="AE70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AF70" s="52" t="s">
+      <c r="AF70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AG70" s="52" t="s">
+      <c r="AG70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AH70" s="52" t="s">
+      <c r="AH70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AI70" s="52" t="s">
+      <c r="AI70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AJ70" s="52" t="s">
+      <c r="AJ70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AK70" s="52" t="s">
+      <c r="AK70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AL70" s="52" t="s">
+      <c r="AL70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AM70" s="52" t="s">
+      <c r="AM70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AN70" s="52" t="s">
+      <c r="AN70" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AO70" s="52" t="s">
+      <c r="AO70" s="29" t="s">
         <v>68</v>
       </c>
       <c r="AP70" s="1"/>
@@ -9426,124 +9427,124 @@
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="52" t="s">
+      <c r="F71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="52" t="s">
+      <c r="G71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H71" s="52" t="s">
+      <c r="H71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="52" t="s">
+      <c r="I71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="J71" s="52" t="s">
+      <c r="J71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K71" s="52" t="s">
+      <c r="K71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L71" s="52" t="s">
+      <c r="L71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="M71" s="52" t="s">
+      <c r="M71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N71" s="52" t="s">
+      <c r="N71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O71" s="52" t="s">
+      <c r="O71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="P71" s="52" t="s">
+      <c r="P71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Q71" s="52" t="s">
+      <c r="Q71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="R71" s="52" t="s">
+      <c r="R71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S71" s="52" t="s">
+      <c r="S71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="T71" s="52" t="s">
+      <c r="T71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U71" s="52" t="s">
+      <c r="U71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="V71" s="52" t="s">
+      <c r="V71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="W71" s="52" t="s">
+      <c r="W71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="X71" s="52" t="s">
+      <c r="X71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Y71" s="52" t="s">
+      <c r="Y71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Z71" s="52" t="s">
+      <c r="Z71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AA71" s="52" t="s">
+      <c r="AA71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AB71" s="52" t="s">
+      <c r="AB71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AC71" s="52" t="s">
+      <c r="AC71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AD71" s="52" t="s">
+      <c r="AD71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AE71" s="52" t="s">
+      <c r="AE71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AF71" s="52" t="s">
+      <c r="AF71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AG71" s="52" t="s">
+      <c r="AG71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AH71" s="52" t="s">
+      <c r="AH71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AI71" s="52" t="s">
+      <c r="AI71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AJ71" s="52" t="s">
+      <c r="AJ71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AK71" s="52" t="s">
+      <c r="AK71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AL71" s="52" t="s">
+      <c r="AL71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AM71" s="52" t="s">
+      <c r="AM71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AN71" s="52" t="s">
+      <c r="AN71" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AO71" s="52" t="s">
+      <c r="AO71" s="29" t="s">
         <v>68</v>
       </c>
       <c r="AP71" s="1"/>
@@ -9552,46 +9553,46 @@
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="34"/>
-      <c r="AC72" s="34"/>
-      <c r="AD72" s="34"/>
-      <c r="AE72" s="34"/>
-      <c r="AF72" s="34"/>
-      <c r="AG72" s="34"/>
-      <c r="AH72" s="34"/>
-      <c r="AI72" s="34"/>
-      <c r="AJ72" s="34"/>
-      <c r="AK72" s="34"/>
-      <c r="AL72" s="34"/>
-      <c r="AM72" s="34"/>
-      <c r="AN72" s="34"/>
-      <c r="AO72" s="34"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="36"/>
+      <c r="AB72" s="36"/>
+      <c r="AC72" s="36"/>
+      <c r="AD72" s="36"/>
+      <c r="AE72" s="36"/>
+      <c r="AF72" s="36"/>
+      <c r="AG72" s="36"/>
+      <c r="AH72" s="36"/>
+      <c r="AI72" s="36"/>
+      <c r="AJ72" s="36"/>
+      <c r="AK72" s="36"/>
+      <c r="AL72" s="36"/>
+      <c r="AM72" s="36"/>
+      <c r="AN72" s="36"/>
+      <c r="AO72" s="36"/>
       <c r="AP72" s="1"/>
       <c r="AT72" s="2"/>
       <c r="AU72" s="3"/>
@@ -9644,37 +9645,37 @@
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F74" s="52" t="s">
+      <c r="F74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="52" t="s">
+      <c r="G74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H74" s="52" t="s">
+      <c r="H74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="I74" s="52" t="s">
+      <c r="I74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="J74" s="52" t="s">
+      <c r="J74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="K74" s="52" t="s">
+      <c r="K74" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="L74" s="52" t="s">
+      <c r="L74" s="29" t="s">
         <v>95</v>
       </c>
       <c r="M74" s="1"/>
@@ -9712,120 +9713,120 @@
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="22"/>
-      <c r="AH75" s="22"/>
-      <c r="AI75" s="22"/>
-      <c r="AJ75" s="22"/>
-      <c r="AK75" s="22"/>
-      <c r="AL75" s="22"/>
-      <c r="AM75" s="22"/>
-      <c r="AN75" s="22"/>
-      <c r="AO75" s="22"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="35"/>
+      <c r="AG75" s="35"/>
+      <c r="AH75" s="35"/>
+      <c r="AI75" s="35"/>
+      <c r="AJ75" s="35"/>
+      <c r="AK75" s="35"/>
+      <c r="AL75" s="35"/>
+      <c r="AM75" s="35"/>
+      <c r="AN75" s="35"/>
+      <c r="AO75" s="35"/>
       <c r="AP75" s="1"/>
       <c r="AT75" s="2"/>
       <c r="AU75" s="3"/>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F76" s="52" t="s">
+      <c r="F76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G76" s="52" t="s">
+      <c r="G76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="H76" s="52" t="s">
+      <c r="H76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I76" s="52" t="s">
+      <c r="I76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J76" s="52" t="s">
+      <c r="J76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="K76" s="52" t="s">
+      <c r="K76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="L76" s="52" t="s">
+      <c r="L76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="M76" s="52" t="s">
+      <c r="M76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="N76" s="52" t="s">
+      <c r="N76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="O76" s="52" t="s">
+      <c r="O76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="52" t="s">
+      <c r="P76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="Q76" s="52" t="s">
+      <c r="Q76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="R76" s="52" t="s">
+      <c r="R76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="S76" s="52" t="s">
+      <c r="S76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="T76" s="22"/>
-      <c r="U76" s="22"/>
-      <c r="V76" s="22"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="22"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="52" t="s">
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AB76" s="52" t="s">
+      <c r="AB76" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AC76" s="52" t="s">
+      <c r="AC76" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AD76" s="1"/>
@@ -9846,43 +9847,43 @@
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F77" s="52" t="s">
+      <c r="F77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G77" s="52" t="s">
+      <c r="G77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H77" s="52" t="s">
+      <c r="H77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I77" s="52" t="s">
+      <c r="I77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J77" s="52" t="s">
+      <c r="J77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="52" t="s">
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="R77" s="52" t="s">
+      <c r="R77" s="29" t="s">
         <v>70</v>
       </c>
       <c r="S77" s="1"/>
@@ -9960,122 +9961,122 @@
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="52" t="s">
+      <c r="E79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F79" s="52" t="s">
+      <c r="F79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G79" s="52" t="s">
+      <c r="G79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H79" s="52" t="s">
+      <c r="H79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I79" s="52" t="s">
+      <c r="I79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J79" s="52" t="s">
+      <c r="J79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K79" s="52" t="s">
+      <c r="K79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="L79" s="52" t="s">
+      <c r="L79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M79" s="52" t="s">
+      <c r="M79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N79" s="52" t="s">
+      <c r="N79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="O79" s="52" t="s">
+      <c r="O79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="P79" s="52" t="s">
+      <c r="P79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="Q79" s="52" t="s">
+      <c r="Q79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="R79" s="52" t="s">
+      <c r="R79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="S79" s="52" t="s">
+      <c r="S79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="T79" s="52" t="s">
+      <c r="T79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="U79" s="52" t="s">
+      <c r="U79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V79" s="52" t="s">
+      <c r="V79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="W79" s="52" t="s">
+      <c r="W79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="X79" s="52" t="s">
+      <c r="X79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="Y79" s="52" t="s">
+      <c r="Y79" s="29" t="s">
         <v>71</v>
       </c>
       <c r="Z79" s="1"/>
-      <c r="AA79" s="53" t="s">
+      <c r="AA79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AB79" s="53" t="s">
+      <c r="AB79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AC79" s="53" t="s">
+      <c r="AC79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AD79" s="53" t="s">
+      <c r="AD79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AE79" s="53" t="s">
+      <c r="AE79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AF79" s="53" t="s">
+      <c r="AF79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AG79" s="53" t="s">
+      <c r="AG79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AH79" s="53" t="s">
+      <c r="AH79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AI79" s="53" t="s">
+      <c r="AI79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AJ79" s="53" t="s">
+      <c r="AJ79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AK79" s="53" t="s">
+      <c r="AK79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AL79" s="53" t="s">
+      <c r="AL79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AM79" s="53" t="s">
+      <c r="AM79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AN79" s="53" t="s">
+      <c r="AN79" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AO79" s="53" t="s">
+      <c r="AO79" s="33" t="s">
         <v>72</v>
       </c>
       <c r="AP79" s="1"/>
@@ -10084,168 +10085,168 @@
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="30"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
       <c r="Z80" s="1"/>
-      <c r="AA80" s="55"/>
-      <c r="AB80" s="55"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
-      <c r="AG80" s="55"/>
-      <c r="AH80" s="55"/>
-      <c r="AI80" s="55"/>
-      <c r="AJ80" s="55"/>
-      <c r="AK80" s="55"/>
-      <c r="AL80" s="55"/>
-      <c r="AM80" s="55"/>
-      <c r="AN80" s="55"/>
-      <c r="AO80" s="55"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="34"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="34"/>
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="34"/>
+      <c r="AG80" s="34"/>
+      <c r="AH80" s="34"/>
+      <c r="AI80" s="34"/>
+      <c r="AJ80" s="34"/>
+      <c r="AK80" s="34"/>
+      <c r="AL80" s="34"/>
+      <c r="AM80" s="34"/>
+      <c r="AN80" s="34"/>
+      <c r="AO80" s="34"/>
       <c r="AP80" s="1"/>
       <c r="AT80" s="2"/>
       <c r="AU80" s="3"/>
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="52" t="s">
+      <c r="D81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="52" t="s">
+      <c r="E81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F81" s="52" t="s">
+      <c r="F81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G81" s="52" t="s">
+      <c r="G81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="52" t="s">
+      <c r="H81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I81" s="52" t="s">
+      <c r="I81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J81" s="52" t="s">
+      <c r="J81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K81" s="52" t="s">
+      <c r="K81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="L81" s="52" t="s">
+      <c r="L81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M81" s="52" t="s">
+      <c r="M81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="N81" s="52" t="s">
+      <c r="N81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="O81" s="52" t="s">
+      <c r="O81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="52" t="s">
+      <c r="P81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="Q81" s="52" t="s">
+      <c r="Q81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="R81" s="52" t="s">
+      <c r="R81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="S81" s="52" t="s">
+      <c r="S81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="T81" s="52" t="s">
+      <c r="T81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="U81" s="52" t="s">
+      <c r="U81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="V81" s="52" t="s">
+      <c r="V81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="W81" s="52" t="s">
+      <c r="W81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="X81" s="52" t="s">
+      <c r="X81" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="Y81" s="52" t="s">
+      <c r="Y81" s="29" t="s">
         <v>97</v>
       </c>
       <c r="Z81" s="1"/>
-      <c r="AA81" s="57" t="s">
+      <c r="AA81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AB81" s="57" t="s">
+      <c r="AB81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AC81" s="57" t="s">
+      <c r="AC81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AD81" s="57" t="s">
+      <c r="AD81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AE81" s="57" t="s">
+      <c r="AE81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AF81" s="57" t="s">
+      <c r="AF81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AG81" s="57" t="s">
+      <c r="AG81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AH81" s="57" t="s">
+      <c r="AH81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AI81" s="57" t="s">
+      <c r="AI81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AJ81" s="57" t="s">
+      <c r="AJ81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AK81" s="57" t="s">
+      <c r="AK81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AL81" s="57" t="s">
+      <c r="AL81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AM81" s="57" t="s">
+      <c r="AM81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AN81" s="57" t="s">
+      <c r="AN81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AO81" s="57" t="s">
+      <c r="AO81" s="32" t="s">
         <v>72</v>
       </c>
       <c r="AP81" s="1"/>
@@ -10254,168 +10255,168 @@
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="30"/>
-      <c r="X82" s="30"/>
-      <c r="Y82" s="30"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+      <c r="V82" s="18"/>
+      <c r="W82" s="18"/>
+      <c r="X82" s="18"/>
+      <c r="Y82" s="18"/>
       <c r="Z82" s="1"/>
-      <c r="AA82" s="30"/>
-      <c r="AB82" s="30"/>
-      <c r="AC82" s="30"/>
-      <c r="AD82" s="30"/>
-      <c r="AE82" s="30"/>
-      <c r="AF82" s="30"/>
-      <c r="AG82" s="30"/>
-      <c r="AH82" s="30"/>
-      <c r="AI82" s="30"/>
-      <c r="AJ82" s="30"/>
-      <c r="AK82" s="30"/>
-      <c r="AL82" s="30"/>
-      <c r="AM82" s="30"/>
-      <c r="AN82" s="30"/>
-      <c r="AO82" s="30"/>
+      <c r="AA82" s="18"/>
+      <c r="AB82" s="18"/>
+      <c r="AC82" s="18"/>
+      <c r="AD82" s="18"/>
+      <c r="AE82" s="18"/>
+      <c r="AF82" s="18"/>
+      <c r="AG82" s="18"/>
+      <c r="AH82" s="18"/>
+      <c r="AI82" s="18"/>
+      <c r="AJ82" s="18"/>
+      <c r="AK82" s="18"/>
+      <c r="AL82" s="18"/>
+      <c r="AM82" s="18"/>
+      <c r="AN82" s="18"/>
+      <c r="AO82" s="18"/>
       <c r="AP82" s="1"/>
       <c r="AT82" s="2"/>
       <c r="AU82" s="7"/>
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="52" t="s">
+      <c r="D83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="52" t="s">
+      <c r="E83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F83" s="52" t="s">
+      <c r="F83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="52" t="s">
+      <c r="G83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H83" s="52" t="s">
+      <c r="H83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="I83" s="52" t="s">
+      <c r="I83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="J83" s="52" t="s">
+      <c r="J83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="K83" s="52" t="s">
+      <c r="K83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L83" s="52" t="s">
+      <c r="L83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="M83" s="52" t="s">
+      <c r="M83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="N83" s="52" t="s">
+      <c r="N83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="O83" s="52" t="s">
+      <c r="O83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="P83" s="52" t="s">
+      <c r="P83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="Q83" s="52" t="s">
+      <c r="Q83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="R83" s="52" t="s">
+      <c r="R83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="S83" s="52" t="s">
+      <c r="S83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="T83" s="52" t="s">
+      <c r="T83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="U83" s="52" t="s">
+      <c r="U83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="V83" s="52" t="s">
+      <c r="V83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="W83" s="52" t="s">
+      <c r="W83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="X83" s="52" t="s">
+      <c r="X83" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="Y83" s="52" t="s">
+      <c r="Y83" s="29" t="s">
         <v>98</v>
       </c>
       <c r="Z83" s="1"/>
-      <c r="AA83" s="57" t="s">
+      <c r="AA83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AB83" s="57" t="s">
+      <c r="AB83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AC83" s="57" t="s">
+      <c r="AC83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AD83" s="57" t="s">
+      <c r="AD83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AE83" s="57" t="s">
+      <c r="AE83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AF83" s="57" t="s">
+      <c r="AF83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AG83" s="57" t="s">
+      <c r="AG83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AH83" s="57" t="s">
+      <c r="AH83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AI83" s="57" t="s">
+      <c r="AI83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AJ83" s="57" t="s">
+      <c r="AJ83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AK83" s="57" t="s">
+      <c r="AK83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AL83" s="57" t="s">
+      <c r="AL83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AM83" s="57" t="s">
+      <c r="AM83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AN83" s="57" t="s">
+      <c r="AN83" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AO83" s="57" t="s">
+      <c r="AO83" s="32" t="s">
         <v>72</v>
       </c>
       <c r="AP83" s="1"/>
@@ -10424,46 +10425,46 @@
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
+      <c r="Y84" s="18"/>
       <c r="Z84" s="1"/>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
-      <c r="AD84" s="30"/>
-      <c r="AE84" s="30"/>
-      <c r="AF84" s="30"/>
-      <c r="AG84" s="30"/>
-      <c r="AH84" s="30"/>
-      <c r="AI84" s="30"/>
-      <c r="AJ84" s="30"/>
-      <c r="AK84" s="30"/>
-      <c r="AL84" s="30"/>
-      <c r="AM84" s="30"/>
-      <c r="AN84" s="30"/>
-      <c r="AO84" s="30"/>
+      <c r="AA84" s="18"/>
+      <c r="AB84" s="18"/>
+      <c r="AC84" s="18"/>
+      <c r="AD84" s="18"/>
+      <c r="AE84" s="18"/>
+      <c r="AF84" s="18"/>
+      <c r="AG84" s="18"/>
+      <c r="AH84" s="18"/>
+      <c r="AI84" s="18"/>
+      <c r="AJ84" s="18"/>
+      <c r="AK84" s="18"/>
+      <c r="AL84" s="18"/>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="18"/>
+      <c r="AO84" s="18"/>
       <c r="AP84" s="1"/>
       <c r="AT84" s="2"/>
       <c r="AU84" s="3"/>
@@ -10486,98 +10487,98 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="52" t="s">
+      <c r="R85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="S85" s="52" t="s">
+      <c r="S85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="T85" s="52" t="s">
+      <c r="T85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="U85" s="52" t="s">
+      <c r="U85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="V85" s="52" t="s">
+      <c r="V85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="W85" s="52" t="s">
+      <c r="W85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X85" s="52" t="s">
+      <c r="X85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="Y85" s="52" t="s">
+      <c r="Y85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="Z85" s="52" t="s">
+      <c r="Z85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AA85" s="52" t="s">
+      <c r="AA85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AB85" s="52" t="s">
+      <c r="AB85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AC85" s="52" t="s">
+      <c r="AC85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AD85" s="52" t="s">
+      <c r="AD85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AE85" s="52" t="s">
+      <c r="AE85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AF85" s="52" t="s">
+      <c r="AF85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AG85" s="52" t="s">
+      <c r="AG85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AH85" s="52" t="s">
+      <c r="AH85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AI85" s="58"/>
-      <c r="AJ85" s="58"/>
-      <c r="AK85" s="58"/>
-      <c r="AL85" s="58"/>
-      <c r="AM85" s="58"/>
-      <c r="AN85" s="58"/>
-      <c r="AO85" s="58"/>
+      <c r="AI85" s="30"/>
+      <c r="AJ85" s="30"/>
+      <c r="AK85" s="30"/>
+      <c r="AL85" s="30"/>
+      <c r="AM85" s="30"/>
+      <c r="AN85" s="30"/>
+      <c r="AO85" s="30"/>
       <c r="AP85" s="1"/>
       <c r="AT85" s="2"/>
       <c r="AU85" s="3"/>
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G86" s="54" t="s">
+      <c r="G86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H86" s="54" t="s">
+      <c r="H86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="54" t="s">
+      <c r="I86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J86" s="54" t="s">
+      <c r="J86" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="K86" s="54" t="s">
+      <c r="K86" s="31" t="s">
         <v>73</v>
       </c>
       <c r="L86" s="1"/>
@@ -10788,16 +10789,243 @@
     </row>
   </sheetData>
   <mergeCells count="285">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:AH20"/>
-    <mergeCell ref="AI20:AL20"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:N54"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="Z54:AF54"/>
-    <mergeCell ref="AG54:AO54"/>
+    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="A3:AP3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AL5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:AM8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:AM9"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:AM6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="N7:AM7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="Z10:AM10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="Z11:AM11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:AH16"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AM16:AO16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:AH17"/>
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AM17:AO17"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="E14:AH15"/>
+    <mergeCell ref="AI14:AO14"/>
+    <mergeCell ref="AI15:AL15"/>
+    <mergeCell ref="AM15:AO15"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:AO23"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="AJ25:AO25"/>
+    <mergeCell ref="AC26:AH26"/>
+    <mergeCell ref="AI26:AL26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="L29:AC29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AF30"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="P33:W33"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="Q34:W34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="L31:AN31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="L32:AA32"/>
+    <mergeCell ref="AC32:AH32"/>
+    <mergeCell ref="AI32:AN32"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:AO38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="J39:AL39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="Z35:AF35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:AO36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:S37"/>
+    <mergeCell ref="U37:AC37"/>
+    <mergeCell ref="AD37:AO37"/>
+    <mergeCell ref="AD42:AI42"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="O43:Y43"/>
+    <mergeCell ref="AA43:AH43"/>
+    <mergeCell ref="AI43:AO43"/>
+    <mergeCell ref="B44:P44"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:X41"/>
+    <mergeCell ref="AE41:AL41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="S42:W42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="Z41:AC41"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:N46"/>
+    <mergeCell ref="O46:S46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="Z46:AF46"/>
+    <mergeCell ref="AG46:AO46"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:N45"/>
+    <mergeCell ref="O45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AF45"/>
+    <mergeCell ref="AG45:AO45"/>
+    <mergeCell ref="Z49:AF49"/>
+    <mergeCell ref="AG49:AO49"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="O48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AF48"/>
+    <mergeCell ref="AG48:AO48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="Z47:AF47"/>
+    <mergeCell ref="AG47:AO47"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:N57"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="Z57:AF57"/>
+    <mergeCell ref="AG57:AO57"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:N56"/>
+    <mergeCell ref="O56:S56"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="Z56:AF56"/>
+    <mergeCell ref="AG56:AO56"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:N59"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="Z59:AF59"/>
+    <mergeCell ref="AG59:AO59"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:N58"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="Z58:AF58"/>
+    <mergeCell ref="AG58:AO58"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:AJ62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="J63:V63"/>
+    <mergeCell ref="X63:AC63"/>
+    <mergeCell ref="AD63:AJ63"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:N60"/>
+    <mergeCell ref="O60:S60"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="Z60:AF60"/>
+    <mergeCell ref="AG60:AO60"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="V67:Z67"/>
+    <mergeCell ref="B68:M68"/>
+    <mergeCell ref="N68:AM68"/>
+    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="L65:AJ65"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Z66"/>
+    <mergeCell ref="AB66:AG66"/>
+    <mergeCell ref="AH66:AM66"/>
+    <mergeCell ref="B86:K86"/>
+    <mergeCell ref="B82:Y82"/>
+    <mergeCell ref="AA82:AO82"/>
+    <mergeCell ref="B83:Y83"/>
+    <mergeCell ref="AA83:AO83"/>
+    <mergeCell ref="B84:Y84"/>
+    <mergeCell ref="AA84:AO84"/>
+    <mergeCell ref="B79:Y79"/>
+    <mergeCell ref="AA79:AO79"/>
+    <mergeCell ref="B80:Y80"/>
+    <mergeCell ref="AA80:AE80"/>
+    <mergeCell ref="AF80:AO80"/>
+    <mergeCell ref="B81:Y81"/>
+    <mergeCell ref="AA81:AO81"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:AH18"/>
+    <mergeCell ref="AI18:AL18"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:AH19"/>
+    <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="AM19:AO19"/>
+    <mergeCell ref="R85:AH85"/>
+    <mergeCell ref="AI85:AO85"/>
+    <mergeCell ref="B76:S76"/>
+    <mergeCell ref="T76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="K77:P77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="B69:M69"/>
+    <mergeCell ref="N69:AM69"/>
+    <mergeCell ref="B70:AO71"/>
+    <mergeCell ref="B72:AO72"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="B75:AO75"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="M67:P67"/>
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="H55:N55"/>
     <mergeCell ref="O55:S55"/>
@@ -10814,93 +11042,6 @@
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="Z51:AF51"/>
     <mergeCell ref="AG51:AO51"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:AH18"/>
-    <mergeCell ref="AI18:AL18"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:AH19"/>
-    <mergeCell ref="AI19:AL19"/>
-    <mergeCell ref="AM19:AO19"/>
-    <mergeCell ref="R85:AH85"/>
-    <mergeCell ref="AI85:AO85"/>
-    <mergeCell ref="B86:K86"/>
-    <mergeCell ref="B82:Y82"/>
-    <mergeCell ref="AA82:AO82"/>
-    <mergeCell ref="B83:Y83"/>
-    <mergeCell ref="AA83:AO83"/>
-    <mergeCell ref="B84:Y84"/>
-    <mergeCell ref="AA84:AO84"/>
-    <mergeCell ref="B79:Y79"/>
-    <mergeCell ref="AA79:AO79"/>
-    <mergeCell ref="B80:Y80"/>
-    <mergeCell ref="AA80:AE80"/>
-    <mergeCell ref="AF80:AO80"/>
-    <mergeCell ref="B81:Y81"/>
-    <mergeCell ref="AA81:AO81"/>
-    <mergeCell ref="B76:S76"/>
-    <mergeCell ref="T76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="K77:P77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="B69:M69"/>
-    <mergeCell ref="N69:AM69"/>
-    <mergeCell ref="B70:AO71"/>
-    <mergeCell ref="B72:AO72"/>
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="B75:AO75"/>
-    <mergeCell ref="B67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="V67:Z67"/>
-    <mergeCell ref="B68:M68"/>
-    <mergeCell ref="N68:AM68"/>
-    <mergeCell ref="B65:K65"/>
-    <mergeCell ref="L65:AJ65"/>
-    <mergeCell ref="B66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Z66"/>
-    <mergeCell ref="AB66:AG66"/>
-    <mergeCell ref="AH66:AM66"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:AJ62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="J63:V63"/>
-    <mergeCell ref="X63:AC63"/>
-    <mergeCell ref="AD63:AJ63"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:N60"/>
-    <mergeCell ref="O60:S60"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="Z60:AF60"/>
-    <mergeCell ref="AG60:AO60"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:N59"/>
-    <mergeCell ref="O59:S59"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="Z59:AF59"/>
-    <mergeCell ref="AG59:AO59"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:N58"/>
-    <mergeCell ref="O58:S58"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="Z58:AF58"/>
-    <mergeCell ref="AG58:AO58"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:N57"/>
-    <mergeCell ref="O57:S57"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="Z57:AF57"/>
-    <mergeCell ref="AG57:AO57"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:N56"/>
-    <mergeCell ref="O56:S56"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="Z56:AF56"/>
-    <mergeCell ref="AG56:AO56"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="H50:N50"/>
     <mergeCell ref="O50:S50"/>
@@ -10909,6 +11050,16 @@
     <mergeCell ref="AG50:AO50"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:N52"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:AH20"/>
+    <mergeCell ref="AI20:AL20"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="Z54:AF54"/>
+    <mergeCell ref="AG54:AO54"/>
     <mergeCell ref="O52:S52"/>
     <mergeCell ref="T52:Y52"/>
     <mergeCell ref="Z52:AF52"/>
@@ -10923,156 +11074,6 @@
     <mergeCell ref="H49:N49"/>
     <mergeCell ref="O49:S49"/>
     <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="Z49:AF49"/>
-    <mergeCell ref="AG49:AO49"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:N48"/>
-    <mergeCell ref="O48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AF48"/>
-    <mergeCell ref="AG48:AO48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="Z47:AF47"/>
-    <mergeCell ref="AG47:AO47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:N46"/>
-    <mergeCell ref="O46:S46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="Z46:AF46"/>
-    <mergeCell ref="AG46:AO46"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:N45"/>
-    <mergeCell ref="O45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AF45"/>
-    <mergeCell ref="AG45:AO45"/>
-    <mergeCell ref="AD42:AI42"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="O43:Y43"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="AI43:AO43"/>
-    <mergeCell ref="B44:P44"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:X41"/>
-    <mergeCell ref="Z41:AD41"/>
-    <mergeCell ref="AE41:AL41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="M42:R42"/>
-    <mergeCell ref="S42:W42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:AO38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="J39:AL39"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="Z35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:AO36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:S37"/>
-    <mergeCell ref="U37:AC37"/>
-    <mergeCell ref="AD37:AO37"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="P33:W33"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="Q34:W34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="L31:AN31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="L32:AA32"/>
-    <mergeCell ref="AC32:AH32"/>
-    <mergeCell ref="AI32:AN32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="L29:AC29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AF30"/>
-    <mergeCell ref="AC26:AH26"/>
-    <mergeCell ref="AI26:AL26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:AO23"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:AA25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="AJ25:AO25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:AH16"/>
-    <mergeCell ref="AI16:AL16"/>
-    <mergeCell ref="AM16:AO16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:AH17"/>
-    <mergeCell ref="AI17:AL17"/>
-    <mergeCell ref="AM17:AO17"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="E14:AH15"/>
-    <mergeCell ref="AI14:AO14"/>
-    <mergeCell ref="AI15:AL15"/>
-    <mergeCell ref="AM15:AO15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="Z10:AM10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="Z11:AM11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:AM9"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:AM6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="N7:AM7"/>
-    <mergeCell ref="A1:AP1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="A3:AP3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AL5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:AM8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA80:AE80">
